--- a/biology/Botanique/Goniomonas/Goniomonas.xlsx
+++ b/biology/Botanique/Goniomonas/Goniomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniomonas est un genre d'algues unicellulaires cryptophytes se nourrissant par phagocytose de proies (par exemple d'autres eucaryotes unicellulaires). Ils se distinguent par leur absence de plaste.
 Il existe une relation de groupe frère entre les espèces marines et les espèces d'eau douce.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 nov. 2011)[1] et World Register of Marine Species                               (22 nov. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 nov. 2011) et World Register of Marine Species                               (22 nov. 2011) :
 Goniomonas amphinema
 Goniomonas pacifica
 Goniomonas truncata</t>
